--- a/run_log/run_results/train_history/training_history_run_8.xlsx
+++ b/run_log/run_results/train_history/training_history_run_8.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.04900120571255684</v>
+        <v>0.1200032159686089</v>
       </c>
       <c r="B2">
-        <v>0.9864330887794495</v>
+        <v>0.9604939222335815</v>
       </c>
       <c r="C2">
-        <v>0.009198169223964214</v>
+        <v>0.008076382800936699</v>
       </c>
       <c r="D2">
-        <v>0.9983093738555908</v>
+        <v>0.9986888766288757</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.007390186190605164</v>
+        <v>0.03782502189278603</v>
       </c>
       <c r="B3">
-        <v>0.9985523819923401</v>
+        <v>0.987867534160614</v>
       </c>
       <c r="C3">
-        <v>0.004381303209811449</v>
+        <v>0.006330511532723904</v>
       </c>
       <c r="D3">
-        <v>0.9984301328659058</v>
+        <v>0.9986888766288757</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.003205311018973589</v>
+        <v>0.02291683107614517</v>
       </c>
       <c r="B4">
-        <v>0.9992019534111023</v>
+        <v>0.9947972893714905</v>
       </c>
       <c r="C4">
-        <v>0.0005995805258862674</v>
+        <v>0.003965023905038834</v>
       </c>
       <c r="D4">
-        <v>0.9998792409896851</v>
+        <v>0.9988905787467957</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.001417685416527092</v>
+        <v>0.01646891422569752</v>
       </c>
       <c r="B5">
-        <v>0.9996102452278137</v>
+        <v>0.9954233169555664</v>
       </c>
       <c r="C5">
-        <v>1.930155849549919E-05</v>
+        <v>0.002476252149790525</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.9989914298057556</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.00156841438729316</v>
+        <v>0.0110191497951746</v>
       </c>
       <c r="B6">
-        <v>0.9996659159660339</v>
+        <v>0.9973015189170837</v>
       </c>
       <c r="C6">
-        <v>1.888796759885736E-05</v>
+        <v>0.002119767246767879</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.001061618328094482</v>
+        <v>0.01016345806419849</v>
       </c>
       <c r="B7">
-        <v>0.9997772574424744</v>
+        <v>0.9972151517868042</v>
       </c>
       <c r="C7">
-        <v>4.959896978107281E-05</v>
+        <v>0.002026139525696635</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0007901408826000988</v>
+        <v>0.008427067659795284</v>
       </c>
       <c r="B8">
-        <v>0.9998329877853394</v>
+        <v>0.997603714466095</v>
       </c>
       <c r="C8">
-        <v>0.0004586211871355772</v>
+        <v>0.00176313822157681</v>
       </c>
       <c r="D8">
-        <v>0.9996377229690552</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.0003726967261172831</v>
+        <v>0.008846169337630272</v>
       </c>
       <c r="B9">
-        <v>0.9999071955680847</v>
+        <v>0.9974526166915894</v>
       </c>
       <c r="C9">
-        <v>4.596315193339251E-05</v>
+        <v>0.001878790906630456</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0008464619750156999</v>
+        <v>0.008235546760261059</v>
       </c>
       <c r="B10">
-        <v>0.9997587203979492</v>
+        <v>0.9976900815963745</v>
       </c>
       <c r="C10">
-        <v>0.0004496038891375065</v>
+        <v>0.001599812181666493</v>
       </c>
       <c r="D10">
-        <v>0.9997584819793701</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.0006312850164249539</v>
+        <v>0.007803684566169977</v>
       </c>
       <c r="B11">
-        <v>0.9998515248298645</v>
+        <v>0.9977116584777832</v>
       </c>
       <c r="C11">
-        <v>0.000118888114229776</v>
+        <v>0.001498537021689117</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0002078221295960248</v>
+        <v>0.00871565192937851</v>
       </c>
       <c r="B12">
-        <v>0.9999443292617798</v>
+        <v>0.9972583055496216</v>
       </c>
       <c r="C12">
-        <v>1.10830228550185E-06</v>
+        <v>0.001423503272235394</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.0004420946643222123</v>
+        <v>0.008151769638061523</v>
       </c>
       <c r="B13">
-        <v>0.9998886585235596</v>
+        <v>0.9975174069404602</v>
       </c>
       <c r="C13">
-        <v>2.138694617315196E-05</v>
+        <v>0.001271615619771183</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.0005139838322065771</v>
+        <v>0.008394578471779823</v>
       </c>
       <c r="B14">
-        <v>0.9997958540916443</v>
+        <v>0.9972367286682129</v>
       </c>
       <c r="C14">
-        <v>2.543607024563244E-06</v>
+        <v>0.001427231589332223</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0002918081008829176</v>
+        <v>0.008263843134045601</v>
       </c>
       <c r="B15">
-        <v>0.9999071955680847</v>
+        <v>0.9972367286682129</v>
       </c>
       <c r="C15">
-        <v>2.05697251658421E-05</v>
+        <v>0.001215763739310205</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.000110948909423314</v>
+        <v>0.007269247900694609</v>
       </c>
       <c r="B16">
-        <v>0.9999628663063049</v>
+        <v>0.9976469278335571</v>
       </c>
       <c r="C16">
-        <v>0.0002806517295539379</v>
+        <v>0.001106060342863202</v>
       </c>
       <c r="D16">
-        <v>0.9997584819793701</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>6.851987564004958E-06</v>
+        <v>0.008388400077819824</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.9974957704544067</v>
       </c>
       <c r="C17">
-        <v>9.00091981748119E-06</v>
+        <v>0.001095374813303351</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0008654901757836342</v>
+        <v>0.006611845456063747</v>
       </c>
       <c r="B18">
-        <v>0.9998515248298645</v>
+        <v>0.9977764487266541</v>
       </c>
       <c r="C18">
-        <v>1.925352762555121E-06</v>
+        <v>0.001058319234289229</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1.910757782752626E-05</v>
+        <v>0.007537002675235271</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.9973878264427185</v>
       </c>
       <c r="C19">
-        <v>1.034537262967206E-06</v>
+        <v>0.00121416908223182</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1.452237756893737E-05</v>
+        <v>0.00700663635507226</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.9975821375846863</v>
       </c>
       <c r="C20">
-        <v>5.873168902326142E-07</v>
+        <v>0.001027434598654509</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0006126658408902586</v>
+        <v>0.007252276875078678</v>
       </c>
       <c r="B21">
-        <v>0.9998329877853394</v>
+        <v>0.9974957704544067</v>
       </c>
       <c r="C21">
-        <v>4.127441854961944E-07</v>
+        <v>0.001082345959730446</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0001439535699319094</v>
+        <v>0.006978060584515333</v>
       </c>
       <c r="B22">
-        <v>0.9999257326126099</v>
+        <v>0.9975605607032776</v>
       </c>
       <c r="C22">
-        <v>2.633206122482079E-06</v>
+        <v>0.001330017577856779</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>1.229019017046085E-05</v>
+        <v>0.006980582606047392</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9975605607032776</v>
       </c>
       <c r="C23">
-        <v>5.998993515277107E-07</v>
+        <v>0.0009659050847403705</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.0002570977958384901</v>
+        <v>0.007618582807481289</v>
       </c>
       <c r="B24">
-        <v>0.9998886585235596</v>
+        <v>0.9973015189170837</v>
       </c>
       <c r="C24">
-        <v>0.0002081253769574687</v>
+        <v>0.0009657004266045988</v>
       </c>
       <c r="D24">
-        <v>0.9998792409896851</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.000524449918884784</v>
+        <v>0.007244183216243982</v>
       </c>
       <c r="B25">
-        <v>0.9999071955680847</v>
+        <v>0.9974526166915894</v>
       </c>
       <c r="C25">
-        <v>2.073186578854802E-06</v>
+        <v>0.001034227665513754</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0003417737898416817</v>
+        <v>0.007028030697256327</v>
       </c>
       <c r="B26">
-        <v>0.9999071955680847</v>
+        <v>0.9974526166915894</v>
       </c>
       <c r="C26">
-        <v>4.694054567266903E-08</v>
+        <v>0.0009060431038960814</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>4.27257182309404E-05</v>
+        <v>0.007348047569394112</v>
       </c>
       <c r="B27">
-        <v>0.9999814629554749</v>
+        <v>0.9974526166915894</v>
       </c>
       <c r="C27">
-        <v>3.548374749584582E-08</v>
+        <v>0.0009090504609048367</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.0001870553533080965</v>
+        <v>0.00712881563231349</v>
       </c>
       <c r="B28">
-        <v>0.9999257326126099</v>
+        <v>0.9974957704544067</v>
       </c>
       <c r="C28">
-        <v>3.815177933574887E-06</v>
+        <v>0.001214290852658451</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>8.209923544200137E-05</v>
+        <v>0.006449383683502674</v>
       </c>
       <c r="B29">
-        <v>0.9999814629554749</v>
+        <v>0.9977116584777832</v>
       </c>
       <c r="C29">
-        <v>2.648771157964802E-07</v>
+        <v>0.0009924278128892183</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>6.181599019328132E-05</v>
+        <v>0.006217965390533209</v>
       </c>
       <c r="B30">
-        <v>0.9999814629554749</v>
+        <v>0.9977764487266541</v>
       </c>
       <c r="C30">
-        <v>1.094058399431219E-09</v>
+        <v>0.0008789451094344258</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0002260292530991137</v>
+        <v>0.006972514092922211</v>
       </c>
       <c r="B31">
-        <v>0.9999257326126099</v>
+        <v>0.9975389838218689</v>
       </c>
       <c r="C31">
-        <v>4.469597669753966E-08</v>
+        <v>0.00113665871322155</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0001180293256766163</v>
+        <v>0.006890335585922003</v>
       </c>
       <c r="B32">
-        <v>0.9999257326126099</v>
+        <v>0.9975605607032776</v>
       </c>
       <c r="C32">
-        <v>1.709411117190029E-05</v>
+        <v>0.0009421516442671418</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0001974670158233494</v>
+        <v>0.007153441663831472</v>
       </c>
       <c r="B33">
-        <v>0.9999443292617798</v>
+        <v>0.9975174069404602</v>
       </c>
       <c r="C33">
-        <v>2.667860030669544E-07</v>
+        <v>0.0008716598385944963</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.0004821437469217926</v>
+        <v>0.006508206017315388</v>
       </c>
       <c r="B34">
-        <v>0.9998886585235596</v>
+        <v>0.9976469278335571</v>
       </c>
       <c r="C34">
-        <v>1.175980059997528E-06</v>
+        <v>0.0008188926731236279</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0003532138362061232</v>
+        <v>0.008802797645330429</v>
       </c>
       <c r="B35">
-        <v>0.9999628663063049</v>
+        <v>0.9972583055496216</v>
       </c>
       <c r="C35">
-        <v>1.071024229304385E-07</v>
+        <v>0.001260441727936268</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003147952957078815</v>
+        <v>0.007221163250505924</v>
       </c>
       <c r="B36">
-        <v>0.9999257326126099</v>
+        <v>0.9975174069404602</v>
       </c>
       <c r="C36">
-        <v>7.949990390443418E-07</v>
+        <v>0.0008302931673824787</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>7.787804497638717E-05</v>
+        <v>0.007102751173079014</v>
       </c>
       <c r="B37">
-        <v>0.9999443292617798</v>
+        <v>0.9975389838218689</v>
       </c>
       <c r="C37">
-        <v>7.608495167232832E-08</v>
+        <v>0.0008383350213989615</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0003027409547939897</v>
+        <v>0.006864743307232857</v>
       </c>
       <c r="B38">
-        <v>0.9998700618743896</v>
+        <v>0.9974957704544067</v>
       </c>
       <c r="C38">
-        <v>6.120913553786522E-07</v>
+        <v>0.0008201253949664533</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.0002029801980825141</v>
+        <v>0.006658699363470078</v>
       </c>
       <c r="B39">
-        <v>0.9999628663063049</v>
+        <v>0.9975389838218689</v>
       </c>
       <c r="C39">
-        <v>5.924736612428205E-08</v>
+        <v>0.0008612087112851441</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>3.062300947931362E-06</v>
+        <v>0.006486013531684875</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.9976469278335571</v>
       </c>
       <c r="C40">
-        <v>1.227917056922934E-08</v>
+        <v>0.000849985342938453</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>2.855699494830333E-05</v>
+        <v>0.005958870984613895</v>
       </c>
       <c r="B41">
-        <v>0.9999814629554749</v>
+        <v>0.9978843927383423</v>
       </c>
       <c r="C41">
-        <v>8.781257387902031E-10</v>
+        <v>0.0008277925662696362</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.000311470590531826</v>
+        <v>0.005942939780652523</v>
       </c>
       <c r="B42">
-        <v>0.9999257326126099</v>
+        <v>0.9977980256080627</v>
       </c>
       <c r="C42">
-        <v>4.635333006319797E-09</v>
+        <v>0.0007642018026672304</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001944343239301816</v>
+        <v>0.007779129780828953</v>
       </c>
       <c r="B43">
-        <v>0.9999257326126099</v>
+        <v>0.9975821375846863</v>
       </c>
       <c r="C43">
-        <v>3.097701650744966E-08</v>
+        <v>0.0007554296171292663</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>2.432452447465039E-06</v>
+        <v>0.006939390208572149</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.9975174069404602</v>
       </c>
       <c r="C44">
-        <v>3.095024014854175E-09</v>
+        <v>0.000766658631619066</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.0001354481792077422</v>
+        <v>0.006943475920706987</v>
       </c>
       <c r="B45">
-        <v>0.9999628663063049</v>
+        <v>0.9975389838218689</v>
       </c>
       <c r="C45">
-        <v>3.426116723659334E-09</v>
+        <v>0.0007845893851481378</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>9.653449524194002E-05</v>
+        <v>0.00606096163392067</v>
       </c>
       <c r="B46">
-        <v>0.9999628663063049</v>
+        <v>0.9977332353591919</v>
       </c>
       <c r="C46">
-        <v>5.455322948932917E-08</v>
+        <v>0.0007758575957268476</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0001210106202051975</v>
+        <v>0.00770706869661808</v>
       </c>
       <c r="B47">
-        <v>0.9999628663063049</v>
+        <v>0.9972583055496216</v>
       </c>
       <c r="C47">
-        <v>7.327216611230369E-09</v>
+        <v>0.0008030487224459648</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>3.649224163382314E-05</v>
+        <v>0.007006468717008829</v>
       </c>
       <c r="B48">
-        <v>0.9999814629554749</v>
+        <v>0.997474193572998</v>
       </c>
       <c r="C48">
-        <v>0.002257486572489142</v>
+        <v>0.0007973500760272145</v>
       </c>
       <c r="D48">
-        <v>0.9997584819793701</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0001340461167274043</v>
+        <v>0.006244299001991749</v>
       </c>
       <c r="B49">
-        <v>0.9999628663063049</v>
+        <v>0.9976685047149658</v>
       </c>
       <c r="C49">
-        <v>0.001420238870196044</v>
+        <v>0.0007813083357177675</v>
       </c>
       <c r="D49">
-        <v>0.9998792409896851</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001722060114843771</v>
+        <v>0.007039610296487808</v>
       </c>
       <c r="B50">
-        <v>0.9999814629554749</v>
+        <v>0.9974310398101807</v>
       </c>
       <c r="C50">
-        <v>0.001871269312687218</v>
+        <v>0.0008661326137371361</v>
       </c>
       <c r="D50">
-        <v>0.9998792409896851</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>4.295327187264775E-07</v>
+        <v>0.00634013582020998</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.9977332353591919</v>
       </c>
       <c r="C51">
-        <v>0.001755079836584628</v>
+        <v>0.001469014910981059</v>
       </c>
       <c r="D51">
-        <v>0.9998792409896851</v>
+        <v>0.9990922808647156</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_8.xlsx
+++ b/run_log/run_results/train_history/training_history_run_8.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.1200032159686089</v>
+        <v>0.06597369909286499</v>
       </c>
       <c r="B2">
-        <v>0.9604939222335815</v>
+        <v>0.9862858057022095</v>
       </c>
       <c r="C2">
-        <v>0.008076382800936699</v>
+        <v>0.1162338629364967</v>
       </c>
       <c r="D2">
-        <v>0.9986888766288757</v>
+        <v>0.972449004650116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.03782502189278603</v>
+        <v>0.01118937507271767</v>
       </c>
       <c r="B3">
-        <v>0.987867534160614</v>
+        <v>0.9980478882789612</v>
       </c>
       <c r="C3">
-        <v>0.006330511532723904</v>
+        <v>0.1778699904680252</v>
       </c>
       <c r="D3">
-        <v>0.9986888766288757</v>
+        <v>0.9602678418159485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.02291683107614517</v>
+        <v>0.006237824447453022</v>
       </c>
       <c r="B4">
-        <v>0.9947972893714905</v>
+        <v>0.9984926581382751</v>
       </c>
       <c r="C4">
-        <v>0.003965023905038834</v>
+        <v>0.09072687476873398</v>
       </c>
       <c r="D4">
-        <v>0.9988905787467957</v>
+        <v>0.967793345451355</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.01646891422569752</v>
+        <v>0.003342871554195881</v>
       </c>
       <c r="B5">
-        <v>0.9954233169555664</v>
+        <v>0.9989868998527527</v>
       </c>
       <c r="C5">
-        <v>0.002476252149790525</v>
+        <v>0.1091148778796196</v>
       </c>
       <c r="D5">
-        <v>0.9989914298057556</v>
+        <v>0.9642857313156128</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0110191497951746</v>
+        <v>0.001545891398563981</v>
       </c>
       <c r="B6">
-        <v>0.9973015189170837</v>
+        <v>0.9996787905693054</v>
       </c>
       <c r="C6">
-        <v>0.002119767246767879</v>
+        <v>0.1252525746822357</v>
       </c>
       <c r="D6">
-        <v>0.9990922808647156</v>
+        <v>0.9676657915115356</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01016345806419849</v>
+        <v>0.002513718325644732</v>
       </c>
       <c r="B7">
-        <v>0.9972151517868042</v>
+        <v>0.9992833733558655</v>
       </c>
       <c r="C7">
-        <v>0.002026139525696635</v>
+        <v>0.1176488399505615</v>
       </c>
       <c r="D7">
-        <v>0.9990922808647156</v>
+        <v>0.9742984771728516</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.008427067659795284</v>
+        <v>0.001212093629874289</v>
       </c>
       <c r="B8">
-        <v>0.997603714466095</v>
+        <v>0.9996787905693054</v>
       </c>
       <c r="C8">
-        <v>0.00176313822157681</v>
+        <v>0.1386571675539017</v>
       </c>
       <c r="D8">
-        <v>0.9990922808647156</v>
+        <v>0.9737244844436646</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.008846169337630272</v>
+        <v>0.001535779680125415</v>
       </c>
       <c r="B9">
-        <v>0.9974526166915894</v>
+        <v>0.9996293187141418</v>
       </c>
       <c r="C9">
-        <v>0.001878790906630456</v>
+        <v>0.08428902924060822</v>
       </c>
       <c r="D9">
-        <v>0.9990922808647156</v>
+        <v>0.9753826260566711</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.008235546760261059</v>
+        <v>0.0008829118451103568</v>
       </c>
       <c r="B10">
-        <v>0.9976900815963745</v>
+        <v>0.99980229139328</v>
       </c>
       <c r="C10">
-        <v>0.001599812181666493</v>
+        <v>0.1176920011639595</v>
       </c>
       <c r="D10">
-        <v>0.9990922808647156</v>
+        <v>0.9710459113121033</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.007803684566169977</v>
+        <v>0.001806232030503452</v>
       </c>
       <c r="B11">
-        <v>0.9977116584777832</v>
+        <v>0.9996787905693054</v>
       </c>
       <c r="C11">
-        <v>0.001498537021689117</v>
+        <v>0.1974737197160721</v>
       </c>
       <c r="D11">
-        <v>0.9990922808647156</v>
+        <v>0.9653061032295227</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.00871565192937851</v>
+        <v>0.0009626789251342416</v>
       </c>
       <c r="B12">
-        <v>0.9972583055496216</v>
+        <v>0.999777615070343</v>
       </c>
       <c r="C12">
-        <v>0.001423503272235394</v>
+        <v>0.2835482656955719</v>
       </c>
       <c r="D12">
-        <v>0.9990922808647156</v>
+        <v>0.9612882733345032</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.008151769638061523</v>
+        <v>0.001204178435727954</v>
       </c>
       <c r="B13">
-        <v>0.9975174069404602</v>
+        <v>0.9998270273208618</v>
       </c>
       <c r="C13">
-        <v>0.001271615619771183</v>
+        <v>0.2817160487174988</v>
       </c>
       <c r="D13">
-        <v>0.9990922808647156</v>
+        <v>0.9616709351539612</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.008394578471779823</v>
+        <v>0.00106389750726521</v>
       </c>
       <c r="B14">
-        <v>0.9972367286682129</v>
+        <v>0.9997034668922424</v>
       </c>
       <c r="C14">
-        <v>0.001427231589332223</v>
+        <v>0.1330789923667908</v>
       </c>
       <c r="D14">
-        <v>0.9990922808647156</v>
+        <v>0.9748724699020386</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.008263843134045601</v>
+        <v>0.0006034984835423529</v>
       </c>
       <c r="B15">
-        <v>0.9972367286682129</v>
+        <v>0.99980229139328</v>
       </c>
       <c r="C15">
-        <v>0.001215763739310205</v>
+        <v>0.1247851401567459</v>
       </c>
       <c r="D15">
-        <v>0.9990922808647156</v>
+        <v>0.9728953838348389</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.007269247900694609</v>
+        <v>0.0008754157461225986</v>
       </c>
       <c r="B16">
-        <v>0.9976469278335571</v>
+        <v>0.99980229139328</v>
       </c>
       <c r="C16">
-        <v>0.001106060342863202</v>
+        <v>0.1301927864551544</v>
       </c>
       <c r="D16">
-        <v>0.9990922808647156</v>
+        <v>0.964859664440155</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.008388400077819824</v>
+        <v>0.001120057655498385</v>
       </c>
       <c r="B17">
-        <v>0.9974957704544067</v>
+        <v>0.999777615070343</v>
       </c>
       <c r="C17">
-        <v>0.001095374813303351</v>
+        <v>0.06684364378452301</v>
       </c>
       <c r="D17">
-        <v>0.9990922808647156</v>
+        <v>0.9844387769699097</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.006611845456063747</v>
+        <v>0.0004083602398168296</v>
       </c>
       <c r="B18">
-        <v>0.9977764487266541</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C18">
-        <v>0.001058319234289229</v>
+        <v>0.1191778630018234</v>
       </c>
       <c r="D18">
-        <v>0.9990922808647156</v>
+        <v>0.9788265228271484</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.007537002675235271</v>
+        <v>0.0009464031318202615</v>
       </c>
       <c r="B19">
-        <v>0.9973878264427185</v>
+        <v>0.9998270273208618</v>
       </c>
       <c r="C19">
-        <v>0.00121416908223182</v>
+        <v>0.04982419684529305</v>
       </c>
       <c r="D19">
-        <v>0.9990922808647156</v>
+        <v>0.9826530814170837</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.00700663635507226</v>
+        <v>0.0003086334909312427</v>
       </c>
       <c r="B20">
-        <v>0.9975821375846863</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C20">
-        <v>0.001027434598654509</v>
+        <v>0.05738229677081108</v>
       </c>
       <c r="D20">
-        <v>0.9990922808647156</v>
+        <v>0.983227014541626</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.007252276875078678</v>
+        <v>0.0007671194616705179</v>
       </c>
       <c r="B21">
-        <v>0.9974957704544067</v>
+        <v>0.9998270273208618</v>
       </c>
       <c r="C21">
-        <v>0.001082345959730446</v>
+        <v>0.05341269075870514</v>
       </c>
       <c r="D21">
-        <v>0.9990922808647156</v>
+        <v>0.9883928298950195</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.006978060584515333</v>
+        <v>0.0002403905964456499</v>
       </c>
       <c r="B22">
-        <v>0.9975605607032776</v>
+        <v>0.9998764395713806</v>
       </c>
       <c r="C22">
-        <v>0.001330017577856779</v>
+        <v>0.1418747305870056</v>
       </c>
       <c r="D22">
-        <v>0.9990922808647156</v>
+        <v>0.9640306234359741</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.006980582606047392</v>
+        <v>0.001503307605162263</v>
       </c>
       <c r="B23">
-        <v>0.9975605607032776</v>
+        <v>0.999777615070343</v>
       </c>
       <c r="C23">
-        <v>0.0009659050847403705</v>
+        <v>0.180696040391922</v>
       </c>
       <c r="D23">
-        <v>0.9990922808647156</v>
+        <v>0.9615433812141418</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.007618582807481289</v>
+        <v>0.000531272089574486</v>
       </c>
       <c r="B24">
-        <v>0.9973015189170837</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C24">
-        <v>0.0009657004266045988</v>
+        <v>0.1591192036867142</v>
       </c>
       <c r="D24">
-        <v>0.9990922808647156</v>
+        <v>0.9628826379776001</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.007244183216243982</v>
+        <v>0.0004924956010654569</v>
       </c>
       <c r="B25">
-        <v>0.9974526166915894</v>
+        <v>0.999777615070343</v>
       </c>
       <c r="C25">
-        <v>0.001034227665513754</v>
+        <v>0.1006185412406921</v>
       </c>
       <c r="D25">
-        <v>0.9990922808647156</v>
+        <v>0.9730229377746582</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.007028030697256327</v>
+        <v>0.0001223197468789294</v>
       </c>
       <c r="B26">
-        <v>0.9974526166915894</v>
+        <v>0.9999752640724182</v>
       </c>
       <c r="C26">
-        <v>0.0009060431038960814</v>
+        <v>0.1592647284269333</v>
       </c>
       <c r="D26">
-        <v>0.9990922808647156</v>
+        <v>0.9720025658607483</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.007348047569394112</v>
+        <v>0.0002229893143521622</v>
       </c>
       <c r="B27">
-        <v>0.9974526166915894</v>
+        <v>0.9999258518218994</v>
       </c>
       <c r="C27">
-        <v>0.0009090504609048367</v>
+        <v>0.05045899748802185</v>
       </c>
       <c r="D27">
-        <v>0.9990922808647156</v>
+        <v>0.9850765466690063</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.00712881563231349</v>
+        <v>0.001348324003629386</v>
       </c>
       <c r="B28">
-        <v>0.9974957704544067</v>
+        <v>0.9997528791427612</v>
       </c>
       <c r="C28">
-        <v>0.001214290852658451</v>
+        <v>0.1724154651165009</v>
       </c>
       <c r="D28">
-        <v>0.9990922808647156</v>
+        <v>0.9633290767669678</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.006449383683502674</v>
+        <v>0.0004411022528074682</v>
       </c>
       <c r="B29">
-        <v>0.9977116584777832</v>
+        <v>0.9999505877494812</v>
       </c>
       <c r="C29">
-        <v>0.0009924278128892183</v>
+        <v>0.05996633321046829</v>
       </c>
       <c r="D29">
-        <v>0.9990922808647156</v>
+        <v>0.9857142567634583</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.006217965390533209</v>
+        <v>0.0005151263321749866</v>
       </c>
       <c r="B30">
-        <v>0.9977764487266541</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C30">
-        <v>0.0008789451094344258</v>
+        <v>0.08336549997329712</v>
       </c>
       <c r="D30">
-        <v>0.9990922808647156</v>
+        <v>0.9752551317214966</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.006972514092922211</v>
+        <v>0.0004033498698845506</v>
       </c>
       <c r="B31">
-        <v>0.9975389838218689</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C31">
-        <v>0.00113665871322155</v>
+        <v>0.141542986035347</v>
       </c>
       <c r="D31">
-        <v>0.9990922808647156</v>
+        <v>0.9673469662666321</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.006890335585922003</v>
+        <v>0.0002607712813187391</v>
       </c>
       <c r="B32">
-        <v>0.9975605607032776</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C32">
-        <v>0.0009421516442671418</v>
+        <v>0.2527180016040802</v>
       </c>
       <c r="D32">
-        <v>0.9990922808647156</v>
+        <v>0.9607780575752258</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.007153441663831472</v>
+        <v>0.0006109431269578636</v>
       </c>
       <c r="B33">
-        <v>0.9975174069404602</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C33">
-        <v>0.0008716598385944963</v>
+        <v>0.08328565210103989</v>
       </c>
       <c r="D33">
-        <v>0.9990922808647156</v>
+        <v>0.9809311032295227</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.006508206017315388</v>
+        <v>7.301733421627432E-05</v>
       </c>
       <c r="B34">
-        <v>0.9976469278335571</v>
+        <v>0.9999752640724182</v>
       </c>
       <c r="C34">
-        <v>0.0008188926731236279</v>
+        <v>0.07665637135505676</v>
       </c>
       <c r="D34">
-        <v>0.9990922808647156</v>
+        <v>0.9818239808082581</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.008802797645330429</v>
+        <v>0.0004253085935488343</v>
       </c>
       <c r="B35">
-        <v>0.9972583055496216</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C35">
-        <v>0.001260441727936268</v>
+        <v>0.06239629536867142</v>
       </c>
       <c r="D35">
-        <v>0.9990922808647156</v>
+        <v>0.9819515347480774</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.007221163250505924</v>
+        <v>0.0003180121420882642</v>
       </c>
       <c r="B36">
-        <v>0.9975174069404602</v>
+        <v>0.9998764395713806</v>
       </c>
       <c r="C36">
-        <v>0.0008302931673824787</v>
+        <v>0.0878874734044075</v>
       </c>
       <c r="D36">
-        <v>0.9990922808647156</v>
+        <v>0.9782525300979614</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.007102751173079014</v>
+        <v>0.000464294571429491</v>
       </c>
       <c r="B37">
-        <v>0.9975389838218689</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C37">
-        <v>0.0008383350213989615</v>
+        <v>0.2596498727798462</v>
       </c>
       <c r="D37">
-        <v>0.9990922808647156</v>
+        <v>0.9632652997970581</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.006864743307232857</v>
+        <v>0.0005450963508337736</v>
       </c>
       <c r="B38">
-        <v>0.9974957704544067</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C38">
-        <v>0.0008201253949664533</v>
+        <v>0.119734063744545</v>
       </c>
       <c r="D38">
-        <v>0.9990922808647156</v>
+        <v>0.9732780456542969</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.006658699363470078</v>
+        <v>2.934718031610828E-05</v>
       </c>
       <c r="B39">
-        <v>0.9975389838218689</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>0.0008612087112851441</v>
+        <v>0.1474553942680359</v>
       </c>
       <c r="D39">
-        <v>0.9990922808647156</v>
+        <v>0.969515323638916</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.006486013531684875</v>
+        <v>0.0004090869915671647</v>
       </c>
       <c r="B40">
-        <v>0.9976469278335571</v>
+        <v>0.9998764395713806</v>
       </c>
       <c r="C40">
-        <v>0.000849985342938453</v>
+        <v>0.06143205985426903</v>
       </c>
       <c r="D40">
-        <v>0.9990922808647156</v>
+        <v>0.9834821224212646</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.005958870984613895</v>
+        <v>0.0001451104908483103</v>
       </c>
       <c r="B41">
-        <v>0.9978843927383423</v>
+        <v>0.9999505877494812</v>
       </c>
       <c r="C41">
-        <v>0.0008277925662696362</v>
+        <v>0.1485311686992645</v>
       </c>
       <c r="D41">
-        <v>0.9990922808647156</v>
+        <v>0.9730229377746582</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.005942939780652523</v>
+        <v>0.0004318904830142856</v>
       </c>
       <c r="B42">
-        <v>0.9977980256080627</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C42">
-        <v>0.0007642018026672304</v>
+        <v>0.190279483795166</v>
       </c>
       <c r="D42">
-        <v>0.9990922808647156</v>
+        <v>0.9632652997970581</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.007779129780828953</v>
+        <v>0.0001521644444437698</v>
       </c>
       <c r="B43">
-        <v>0.9975821375846863</v>
+        <v>0.9999752640724182</v>
       </c>
       <c r="C43">
-        <v>0.0007554296171292663</v>
+        <v>0.1031414419412613</v>
       </c>
       <c r="D43">
-        <v>0.9990922808647156</v>
+        <v>0.9774234890937805</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.006939390208572149</v>
+        <v>9.628408588469028E-05</v>
       </c>
       <c r="B44">
-        <v>0.9975174069404602</v>
+        <v>0.9999752640724182</v>
       </c>
       <c r="C44">
-        <v>0.000766658631619066</v>
+        <v>0.4489351809024811</v>
       </c>
       <c r="D44">
-        <v>0.9990922808647156</v>
+        <v>0.9612244963645935</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.006943475920706987</v>
+        <v>9.661566582508385E-05</v>
       </c>
       <c r="B45">
-        <v>0.9975389838218689</v>
+        <v>0.9999752640724182</v>
       </c>
       <c r="C45">
-        <v>0.0007845893851481378</v>
+        <v>0.1094375625252724</v>
       </c>
       <c r="D45">
-        <v>0.9990922808647156</v>
+        <v>0.9802296161651611</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.00606096163392067</v>
+        <v>0.0004403672646731138</v>
       </c>
       <c r="B46">
-        <v>0.9977332353591919</v>
+        <v>0.9999505877494812</v>
       </c>
       <c r="C46">
-        <v>0.0007758575957268476</v>
+        <v>0.1585179269313812</v>
       </c>
       <c r="D46">
-        <v>0.9990922808647156</v>
+        <v>0.9688137769699097</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.00770706869661808</v>
+        <v>0.0006111921975389123</v>
       </c>
       <c r="B47">
-        <v>0.9972583055496216</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C47">
-        <v>0.0008030487224459648</v>
+        <v>0.131764829158783</v>
       </c>
       <c r="D47">
-        <v>0.9990922808647156</v>
+        <v>0.9688775539398193</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.007006468717008829</v>
+        <v>0.0006102813640609384</v>
       </c>
       <c r="B48">
-        <v>0.997474193572998</v>
+        <v>0.9999258518218994</v>
       </c>
       <c r="C48">
-        <v>0.0007973500760272145</v>
+        <v>0.2706469595432281</v>
       </c>
       <c r="D48">
-        <v>0.9990922808647156</v>
+        <v>0.965050995349884</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.006244299001991749</v>
+        <v>0.0003370883350726217</v>
       </c>
       <c r="B49">
-        <v>0.9976685047149658</v>
+        <v>0.9998517632484436</v>
       </c>
       <c r="C49">
-        <v>0.0007813083357177675</v>
+        <v>0.1378201246261597</v>
       </c>
       <c r="D49">
-        <v>0.9990922808647156</v>
+        <v>0.9745535850524902</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.007039610296487808</v>
+        <v>0.0001446453388780355</v>
       </c>
       <c r="B50">
-        <v>0.9974310398101807</v>
+        <v>0.9999505877494812</v>
       </c>
       <c r="C50">
-        <v>0.0008661326137371361</v>
+        <v>0.1958103626966476</v>
       </c>
       <c r="D50">
-        <v>0.9990922808647156</v>
+        <v>0.9702805876731873</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.00634013582020998</v>
+        <v>0.0002668813685886562</v>
       </c>
       <c r="B51">
-        <v>0.9977332353591919</v>
+        <v>0.9999011754989624</v>
       </c>
       <c r="C51">
-        <v>0.001469014910981059</v>
+        <v>0.1921824812889099</v>
       </c>
       <c r="D51">
-        <v>0.9990922808647156</v>
+        <v>0.9708545804023743</v>
       </c>
     </row>
   </sheetData>

--- a/run_log/run_results/train_history/training_history_run_8.xlsx
+++ b/run_log/run_results/train_history/training_history_run_8.xlsx
@@ -395,702 +395,702 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>0.06597369909286499</v>
+        <v>0.06059416010975838</v>
       </c>
       <c r="B2">
-        <v>0.9862858057022095</v>
+        <v>0.9823344945907593</v>
       </c>
       <c r="C2">
-        <v>0.1162338629364967</v>
+        <v>0.02161066979169846</v>
       </c>
       <c r="D2">
-        <v>0.972449004650116</v>
+        <v>0.9961565136909485</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>0.01118937507271767</v>
+        <v>0.007842882536351681</v>
       </c>
       <c r="B3">
-        <v>0.9980478882789612</v>
+        <v>0.9984692335128784</v>
       </c>
       <c r="C3">
-        <v>0.1778699904680252</v>
+        <v>0.01125249546021223</v>
       </c>
       <c r="D3">
-        <v>0.9602678418159485</v>
+        <v>0.9961565136909485</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>0.006237824447453022</v>
+        <v>0.003263595979660749</v>
       </c>
       <c r="B4">
-        <v>0.9984926581382751</v>
+        <v>0.9990850687026978</v>
       </c>
       <c r="C4">
-        <v>0.09072687476873398</v>
+        <v>0.003971421625465155</v>
       </c>
       <c r="D4">
-        <v>0.967793345451355</v>
+        <v>0.99895179271698</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>0.003342871554195881</v>
+        <v>0.002217731904238462</v>
       </c>
       <c r="B5">
-        <v>0.9989868998527527</v>
+        <v>0.9995073080062866</v>
       </c>
       <c r="C5">
-        <v>0.1091148778796196</v>
+        <v>0.001151856267824769</v>
       </c>
       <c r="D5">
-        <v>0.9642857313156128</v>
+        <v>0.99895179271698</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.001545891398563981</v>
+        <v>0.001602303236722946</v>
       </c>
       <c r="B6">
-        <v>0.9996787905693054</v>
+        <v>0.9995601177215576</v>
       </c>
       <c r="C6">
-        <v>0.1252525746822357</v>
+        <v>0.0007560593658126891</v>
       </c>
       <c r="D6">
-        <v>0.9676657915115356</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.002513718325644732</v>
+        <v>0.001637882320210338</v>
       </c>
       <c r="B7">
-        <v>0.9992833733558655</v>
+        <v>0.9995601177215576</v>
       </c>
       <c r="C7">
-        <v>0.1176488399505615</v>
+        <v>0.001006737584248185</v>
       </c>
       <c r="D7">
-        <v>0.9742984771728516</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.001212093629874289</v>
+        <v>0.000885470537468791</v>
       </c>
       <c r="B8">
-        <v>0.9996787905693054</v>
+        <v>0.9997184872627258</v>
       </c>
       <c r="C8">
-        <v>0.1386571675539017</v>
+        <v>0.0005875350907444954</v>
       </c>
       <c r="D8">
-        <v>0.9737244844436646</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.001535779680125415</v>
+        <v>0.0007942115771584213</v>
       </c>
       <c r="B9">
-        <v>0.9996293187141418</v>
+        <v>0.9997360706329346</v>
       </c>
       <c r="C9">
-        <v>0.08428902924060822</v>
+        <v>6.64602848701179E-05</v>
       </c>
       <c r="D9">
-        <v>0.9753826260566711</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.0008829118451103568</v>
+        <v>0.0007708691409789026</v>
       </c>
       <c r="B10">
-        <v>0.99980229139328</v>
+        <v>0.9998416304588318</v>
       </c>
       <c r="C10">
-        <v>0.1176920011639595</v>
+        <v>4.504147364059463E-05</v>
       </c>
       <c r="D10">
-        <v>0.9710459113121033</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.001806232030503452</v>
+        <v>0.0007734073442406952</v>
       </c>
       <c r="B11">
-        <v>0.9996787905693054</v>
+        <v>0.9998064637184143</v>
       </c>
       <c r="C11">
-        <v>0.1974737197160721</v>
+        <v>0.001351145794615149</v>
       </c>
       <c r="D11">
-        <v>0.9653061032295227</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.0009626789251342416</v>
+        <v>0.0005454458296298981</v>
       </c>
       <c r="B12">
-        <v>0.999777615070343</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C12">
-        <v>0.2835482656955719</v>
+        <v>4.096049451618455E-05</v>
       </c>
       <c r="D12">
-        <v>0.9612882733345032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.001204178435727954</v>
+        <v>0.0004644978325814009</v>
       </c>
       <c r="B13">
-        <v>0.9998270273208618</v>
+        <v>0.9998944401741028</v>
       </c>
       <c r="C13">
-        <v>0.2817160487174988</v>
+        <v>0.0001232130452990532</v>
       </c>
       <c r="D13">
-        <v>0.9616709351539612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.00106389750726521</v>
+        <v>0.0003671460435725749</v>
       </c>
       <c r="B14">
-        <v>0.9997034668922424</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C14">
-        <v>0.1330789923667908</v>
+        <v>3.892044333042577E-05</v>
       </c>
       <c r="D14">
-        <v>0.9748724699020386</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.0006034984835423529</v>
+        <v>0.0004789872036781162</v>
       </c>
       <c r="B15">
-        <v>0.99980229139328</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C15">
-        <v>0.1247851401567459</v>
+        <v>3.573861249606125E-05</v>
       </c>
       <c r="D15">
-        <v>0.9728953838348389</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.0008754157461225986</v>
+        <v>0.000153091357788071</v>
       </c>
       <c r="B16">
-        <v>0.99980229139328</v>
+        <v>0.9999296069145203</v>
       </c>
       <c r="C16">
-        <v>0.1301927864551544</v>
+        <v>3.522664337651804E-05</v>
       </c>
       <c r="D16">
-        <v>0.964859664440155</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.001120057655498385</v>
+        <v>0.0006993327406235039</v>
       </c>
       <c r="B17">
-        <v>0.999777615070343</v>
+        <v>0.9998064637184143</v>
       </c>
       <c r="C17">
-        <v>0.06684364378452301</v>
+        <v>0.00133404484950006</v>
       </c>
       <c r="D17">
-        <v>0.9844387769699097</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.0004083602398168296</v>
+        <v>2.8134945750935E-05</v>
       </c>
       <c r="B18">
-        <v>0.9999011754989624</v>
+        <v>1</v>
       </c>
       <c r="C18">
-        <v>0.1191778630018234</v>
+        <v>0.003296397626399994</v>
       </c>
       <c r="D18">
-        <v>0.9788265228271484</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.0009464031318202615</v>
+        <v>0.0008119892445392907</v>
       </c>
       <c r="B19">
-        <v>0.9998270273208618</v>
+        <v>0.9998064637184143</v>
       </c>
       <c r="C19">
-        <v>0.04982419684529305</v>
+        <v>1.162749504146632E-05</v>
       </c>
       <c r="D19">
-        <v>0.9826530814170837</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.0003086334909312427</v>
+        <v>0.0001912672450998798</v>
       </c>
       <c r="B20">
-        <v>0.9998517632484436</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C20">
-        <v>0.05738229677081108</v>
+        <v>6.207340629771352E-05</v>
       </c>
       <c r="D20">
-        <v>0.983227014541626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.0007671194616705179</v>
+        <v>0.0002940595149993896</v>
       </c>
       <c r="B21">
-        <v>0.9998270273208618</v>
+        <v>0.9998944401741028</v>
       </c>
       <c r="C21">
-        <v>0.05341269075870514</v>
+        <v>1.420518674422055E-05</v>
       </c>
       <c r="D21">
-        <v>0.9883928298950195</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>0.0002403905964456499</v>
+        <v>0.0005880878889001906</v>
       </c>
       <c r="B22">
-        <v>0.9998764395713806</v>
+        <v>0.9998064637184143</v>
       </c>
       <c r="C22">
-        <v>0.1418747305870056</v>
+        <v>3.545456638676114E-05</v>
       </c>
       <c r="D22">
-        <v>0.9640306234359741</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>0.001503307605162263</v>
+        <v>0.0001963468384929001</v>
       </c>
       <c r="B23">
-        <v>0.999777615070343</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C23">
-        <v>0.180696040391922</v>
+        <v>0.001376168569549918</v>
       </c>
       <c r="D23">
-        <v>0.9615433812141418</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>0.000531272089574486</v>
+        <v>0.000145534664625302</v>
       </c>
       <c r="B24">
-        <v>0.9999011754989624</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C24">
-        <v>0.1591192036867142</v>
+        <v>0.0005252000992186368</v>
       </c>
       <c r="D24">
-        <v>0.9628826379776001</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>0.0004924956010654569</v>
+        <v>0.0004788801015820354</v>
       </c>
       <c r="B25">
-        <v>0.999777615070343</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C25">
-        <v>0.1006185412406921</v>
+        <v>0.0001972745230887085</v>
       </c>
       <c r="D25">
-        <v>0.9730229377746582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>0.0001223197468789294</v>
+        <v>0.0001336545683443546</v>
       </c>
       <c r="B26">
-        <v>0.9999752640724182</v>
+        <v>0.9999296069145203</v>
       </c>
       <c r="C26">
-        <v>0.1592647284269333</v>
+        <v>0.0001030836938298307</v>
       </c>
       <c r="D26">
-        <v>0.9720025658607483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>0.0002229893143521622</v>
+        <v>0.000238155378610827</v>
       </c>
       <c r="B27">
-        <v>0.9999258518218994</v>
+        <v>0.9999296069145203</v>
       </c>
       <c r="C27">
-        <v>0.05045899748802185</v>
+        <v>7.781247404636815E-06</v>
       </c>
       <c r="D27">
-        <v>0.9850765466690063</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>0.001348324003629386</v>
+        <v>0.0002474871871527284</v>
       </c>
       <c r="B28">
-        <v>0.9997528791427612</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C28">
-        <v>0.1724154651165009</v>
+        <v>2.518243491067551E-06</v>
       </c>
       <c r="D28">
-        <v>0.9633290767669678</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>0.0004411022528074682</v>
+        <v>9.967148071154952E-05</v>
       </c>
       <c r="B29">
-        <v>0.9999505877494812</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C29">
-        <v>0.05996633321046829</v>
+        <v>1.216146330307311E-07</v>
       </c>
       <c r="D29">
-        <v>0.9857142567634583</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.0005151263321749866</v>
+        <v>3.691367282954161E-06</v>
       </c>
       <c r="B30">
-        <v>0.9999011754989624</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>0.08336549997329712</v>
+        <v>1.957227908633286E-07</v>
       </c>
       <c r="D30">
-        <v>0.9752551317214966</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.0004033498698845506</v>
+        <v>0.0002706167288124561</v>
       </c>
       <c r="B31">
-        <v>0.9999011754989624</v>
+        <v>0.999947190284729</v>
       </c>
       <c r="C31">
-        <v>0.141542986035347</v>
+        <v>7.033373776721419E-07</v>
       </c>
       <c r="D31">
-        <v>0.9673469662666321</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.0002607712813187391</v>
+        <v>0.0003828966291621327</v>
       </c>
       <c r="B32">
-        <v>0.9998517632484436</v>
+        <v>0.9998944401741028</v>
       </c>
       <c r="C32">
-        <v>0.2527180016040802</v>
+        <v>0.001436293474398553</v>
       </c>
       <c r="D32">
-        <v>0.9607780575752258</v>
+        <v>0.9996505975723267</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.0006109431269578636</v>
+        <v>0.0001377027074340731</v>
       </c>
       <c r="B33">
-        <v>0.9998517632484436</v>
+        <v>0.999947190284729</v>
       </c>
       <c r="C33">
-        <v>0.08328565210103989</v>
+        <v>1.339682512480067E-06</v>
       </c>
       <c r="D33">
-        <v>0.9809311032295227</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>7.301733421627432E-05</v>
+        <v>4.263108712621033E-05</v>
       </c>
       <c r="B34">
-        <v>0.9999752640724182</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C34">
-        <v>0.07665637135505676</v>
+        <v>1.15747802453825E-07</v>
       </c>
       <c r="D34">
-        <v>0.9818239808082581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.0004253085935488343</v>
+        <v>0.0002982307341881096</v>
       </c>
       <c r="B35">
-        <v>0.9998517632484436</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C35">
-        <v>0.06239629536867142</v>
+        <v>7.663884815656274E-08</v>
       </c>
       <c r="D35">
-        <v>0.9819515347480774</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.0003180121420882642</v>
+        <v>2.516223867132794E-05</v>
       </c>
       <c r="B36">
-        <v>0.9998764395713806</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C36">
-        <v>0.0878874734044075</v>
+        <v>1.307878072509538E-08</v>
       </c>
       <c r="D36">
-        <v>0.9782525300979614</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.000464294571429491</v>
+        <v>0.0004315355618018657</v>
       </c>
       <c r="B37">
-        <v>0.9999011754989624</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C37">
-        <v>0.2596498727798462</v>
+        <v>1.40689550676143E-07</v>
       </c>
       <c r="D37">
-        <v>0.9632652997970581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.0005450963508337736</v>
+        <v>0.0001247839245479554</v>
       </c>
       <c r="B38">
-        <v>0.9999011754989624</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C38">
-        <v>0.119734063744545</v>
+        <v>6.688231337648176E-07</v>
       </c>
       <c r="D38">
-        <v>0.9732780456542969</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>2.934718031610828E-05</v>
+        <v>0.0002747255493886769</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C39">
-        <v>0.1474553942680359</v>
+        <v>5.793778967699836E-08</v>
       </c>
       <c r="D39">
-        <v>0.969515323638916</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.0004090869915671647</v>
+        <v>0.0002614011755213141</v>
       </c>
       <c r="B40">
-        <v>0.9998764395713806</v>
+        <v>0.9999120235443115</v>
       </c>
       <c r="C40">
-        <v>0.06143205985426903</v>
+        <v>2.244458983113873E-07</v>
       </c>
       <c r="D40">
-        <v>0.9834821224212646</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.0001451104908483103</v>
+        <v>0.0002011915930779651</v>
       </c>
       <c r="B41">
-        <v>0.9999505877494812</v>
+        <v>0.999947190284729</v>
       </c>
       <c r="C41">
-        <v>0.1485311686992645</v>
+        <v>1.091835565603105E-05</v>
       </c>
       <c r="D41">
-        <v>0.9730229377746582</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.0004318904830142856</v>
+        <v>0.0002317297767149284</v>
       </c>
       <c r="B42">
-        <v>0.9998517632484436</v>
+        <v>0.999947190284729</v>
       </c>
       <c r="C42">
-        <v>0.190279483795166</v>
+        <v>1.025874141191707E-07</v>
       </c>
       <c r="D42">
-        <v>0.9632652997970581</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.0001521644444437698</v>
+        <v>0.0006185008678585291</v>
       </c>
       <c r="B43">
-        <v>0.9999752640724182</v>
+        <v>0.9999824166297913</v>
       </c>
       <c r="C43">
-        <v>0.1031414419412613</v>
+        <v>2.322690988876275E-06</v>
       </c>
       <c r="D43">
-        <v>0.9774234890937805</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>9.628408588469028E-05</v>
+        <v>0.0006156565505079925</v>
       </c>
       <c r="B44">
-        <v>0.9999752640724182</v>
+        <v>0.9998592138290405</v>
       </c>
       <c r="C44">
-        <v>0.4489351809024811</v>
+        <v>1.612890514479659E-07</v>
       </c>
       <c r="D44">
-        <v>0.9612244963645935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>9.661566582508385E-05</v>
+        <v>0.0003933866391889751</v>
       </c>
       <c r="B45">
-        <v>0.9999752640724182</v>
+        <v>0.9999296069145203</v>
       </c>
       <c r="C45">
-        <v>0.1094375625252724</v>
+        <v>3.656779881566763E-06</v>
       </c>
       <c r="D45">
-        <v>0.9802296161651611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
-        <v>0.0004403672646731138</v>
+        <v>0.0001864439836936072</v>
       </c>
       <c r="B46">
-        <v>0.9999505877494812</v>
+        <v>0.999947190284729</v>
       </c>
       <c r="C46">
-        <v>0.1585179269313812</v>
+        <v>1.475894322311433E-07</v>
       </c>
       <c r="D46">
-        <v>0.9688137769699097</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>0.0006111921975389123</v>
+        <v>0.0002747914113570005</v>
       </c>
       <c r="B47">
-        <v>0.9999011754989624</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C47">
-        <v>0.131764829158783</v>
+        <v>5.239343863649992E-06</v>
       </c>
       <c r="D47">
-        <v>0.9688775539398193</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>0.0006102813640609384</v>
+        <v>0.0001239181874552742</v>
       </c>
       <c r="B48">
-        <v>0.9999258518218994</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C48">
-        <v>0.2706469595432281</v>
+        <v>3.057483297652652E-07</v>
       </c>
       <c r="D48">
-        <v>0.965050995349884</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>0.0003370883350726217</v>
+        <v>0.000210453275940381</v>
       </c>
       <c r="B49">
-        <v>0.9998517632484436</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C49">
-        <v>0.1378201246261597</v>
+        <v>3.061303459617193E-06</v>
       </c>
       <c r="D49">
-        <v>0.9745535850524902</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>0.0001446453388780355</v>
+        <v>0.0007493131561204791</v>
       </c>
       <c r="B50">
-        <v>0.9999505877494812</v>
+        <v>0.999876856803894</v>
       </c>
       <c r="C50">
-        <v>0.1958103626966476</v>
+        <v>2.777996428449114E-07</v>
       </c>
       <c r="D50">
-        <v>0.9702805876731873</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>0.0002668813685886562</v>
+        <v>0.0001434707082808018</v>
       </c>
       <c r="B51">
-        <v>0.9999011754989624</v>
+        <v>0.9999648332595825</v>
       </c>
       <c r="C51">
-        <v>0.1921824812889099</v>
+        <v>5.985158679777669E-08</v>
       </c>
       <c r="D51">
-        <v>0.9708545804023743</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
